--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16095" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="387">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -2024,382 +2024,410 @@
     <t>¥#,##0;[Red]"¥"\-#,##0</t>
   </si>
   <si>
+    <t>\$#,##0_);[Red]\(\$#,##0\)</t>
+  </si>
+  <si>
+    <t>\$#,##0.00_);[Red]\(\$#,##0.00\)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ "¥"* #,##0_ ;_ "¥"* \-#,##0_ ;_ "¥"* "-"_ ;_ @_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"_ ;_ @_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"?_ ;_ @_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* "-"_ ;_-@_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_-\$* #,##0.0_ ;_-\$* \-#,##0.0\ ;_-\$* "-"?_ ;_-@_ </t>
+  </si>
+  <si>
+    <t>m/d/yy</t>
+  </si>
+  <si>
+    <t>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</t>
+  </si>
+  <si>
+    <t>yyyy"年"m"月"d"日";@</t>
+  </si>
+  <si>
+    <t>yyyy"年"m"月";@</t>
+  </si>
+  <si>
+    <t>m"月"d"日";@</t>
+  </si>
+  <si>
+    <t>yyyy/m/d;@</t>
+  </si>
+  <si>
+    <t>[$-409]yyyy/m/d\ h:mm\ AM/PM;@</t>
+  </si>
+  <si>
+    <t>yyyy/m/d\ h:mm;@</t>
+  </si>
+  <si>
+    <t>m/d;@</t>
+  </si>
+  <si>
+    <t>m/d/yy;@</t>
+  </si>
+  <si>
+    <t>mm/dd/yy;@</t>
+  </si>
+  <si>
+    <t>[$-409]d\-mmm;@</t>
+  </si>
+  <si>
+    <t>[$-409]d\-mmm\-yy;@</t>
+  </si>
+  <si>
+    <t>[$-409]dd\-mmm\-yy;@</t>
+  </si>
+  <si>
+    <t>[$-409]mmm\-yy;@</t>
+  </si>
+  <si>
+    <t>[$-409]mmmm\-yy;@</t>
+  </si>
+  <si>
+    <t>[$-409]mmmmm;@</t>
+  </si>
+  <si>
+    <t>[$-409]mmmmm\-yy;@</t>
+  </si>
+  <si>
+    <t>[$-411]ge\.m\.d;@</t>
+  </si>
+  <si>
+    <t>[$-411]ggge"年"m"月"d"日";@</t>
+  </si>
+  <si>
+    <t>[$-F400]h:mm:ss\ AM/PM</t>
+  </si>
+  <si>
+    <t>h:mm;@</t>
+  </si>
+  <si>
+    <t>[$-409]h:mm\ AM/PM;@</t>
+  </si>
+  <si>
+    <t>h:mm:ss;@</t>
+  </si>
+  <si>
+    <t>[$-409]h:mm:ss\ AM/PM;@</t>
+  </si>
+  <si>
+    <t>h"時"mm"分";@</t>
+  </si>
+  <si>
+    <t>h"時"mm"分"ss"秒";@</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t># ?/?</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t># ??/??</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>#\ ???/???</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>#\ ?/2</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>#\ ?/4</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>#\ ?/8</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>#\ ?/16</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>#\ ?/10</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>#\ ?/100</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>0.E+00</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0.00E+00</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>0.0000E+00</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>[&lt;=999]000;[&lt;=9999]000\-00;000\-0000</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>[&lt;=99999999]####\-####;\(00\)\ ####\-####</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>△\ #,##0;"▲"\ #,##0</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>[DBNum1][$-411]General</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>[DBNum2][$-411]General</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>[DBNum3][$-411]0</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>[DBNum3][$-411]#,##0</t>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>February-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T1.7.30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_ "¥"* #,##0.0_ ;_ "¥"* \-#,##0.0_ ;_ "¥"* "-"?_ ;_ @_ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* "-"_ ;_-@_ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_ "¥"* #,##0_ ;_ "¥"* \-#,##0_ ;_ "¥"* "-"_ ;_ @_ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¥#,##0_);[Red]\("¥"#,##0\)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3450 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,234.50 </t>
+  </si>
+  <si>
+    <t>(12345)</t>
+  </si>
+  <si>
+    <t>(1,234.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1,234.5 </t>
+  </si>
+  <si>
+    <t>△ 12345</t>
+  </si>
+  <si>
+    <t>△ 1,234.5</t>
+  </si>
+  <si>
+    <t>▲ 12345</t>
+  </si>
+  <si>
+    <t>▲ 1,234.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1,234.5 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,234.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¥12,345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¥-12,345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¥-1,234.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12,345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -12,345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1,234.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $12,345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $-12,345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $-1,234.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¥12,345 </t>
+  </si>
+  <si>
+    <t>(¥12,345)</t>
+  </si>
+  <si>
+    <t>(¥1,234.5)</t>
+  </si>
+  <si>
+    <t>¥12,345</t>
+  </si>
+  <si>
+    <t>¥1,234.5</t>
+  </si>
+  <si>
+    <t>¥-12,345</t>
+  </si>
+  <si>
+    <t>¥-1,234.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12,345 </t>
+  </si>
+  <si>
+    <t>($12,345)</t>
+  </si>
+  <si>
+    <t>($1,234.50)</t>
+  </si>
+  <si>
+    <t>1.2346E+04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[&lt;=99999999]####\-####;\(00\)\ ####\-####</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¥#,##0;"¥"\-#,##0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>¥#,##0.0;[Red]"¥"\-#,##0.0</t>
-  </si>
-  <si>
-    <t>\$#,##0_);[Red]\(\$#,##0\)</t>
-  </si>
-  <si>
-    <t>\$#,##0.00_);[Red]\(\$#,##0.00\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_ "¥"* #,##0_ ;_ "¥"* \-#,##0_ ;_ "¥"* "-"_ ;_ @_ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"_ ;_ @_ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"?_ ;_ @_ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* "-"_ ;_-@_ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_-\$* #,##0.0_ ;_-\$* \-#,##0.0\ ;_-\$* "-"?_ ;_-@_ </t>
-  </si>
-  <si>
-    <t>m/d/yy</t>
-  </si>
-  <si>
-    <t>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</t>
-  </si>
-  <si>
-    <t>yyyy"年"m"月"d"日";@</t>
-  </si>
-  <si>
-    <t>yyyy"年"m"月";@</t>
-  </si>
-  <si>
-    <t>m"月"d"日";@</t>
-  </si>
-  <si>
-    <t>yyyy/m/d;@</t>
-  </si>
-  <si>
-    <t>[$-409]yyyy/m/d\ h:mm\ AM/PM;@</t>
-  </si>
-  <si>
-    <t>yyyy/m/d\ h:mm;@</t>
-  </si>
-  <si>
-    <t>m/d;@</t>
-  </si>
-  <si>
-    <t>m/d/yy;@</t>
-  </si>
-  <si>
-    <t>mm/dd/yy;@</t>
-  </si>
-  <si>
-    <t>[$-409]d\-mmm;@</t>
-  </si>
-  <si>
-    <t>[$-409]d\-mmm\-yy;@</t>
-  </si>
-  <si>
-    <t>[$-409]dd\-mmm\-yy;@</t>
-  </si>
-  <si>
-    <t>[$-409]mmm\-yy;@</t>
-  </si>
-  <si>
-    <t>[$-409]mmmm\-yy;@</t>
-  </si>
-  <si>
-    <t>[$-409]mmmmm;@</t>
-  </si>
-  <si>
-    <t>[$-409]mmmmm\-yy;@</t>
-  </si>
-  <si>
-    <t>[$-411]ge\.m\.d;@</t>
-  </si>
-  <si>
-    <t>[$-411]ggge"年"m"月"d"日";@</t>
-  </si>
-  <si>
-    <t>[$-F400]h:mm:ss\ AM/PM</t>
-  </si>
-  <si>
-    <t>h:mm;@</t>
-  </si>
-  <si>
-    <t>[$-409]h:mm\ AM/PM;@</t>
-  </si>
-  <si>
-    <t>h:mm:ss;@</t>
-  </si>
-  <si>
-    <t>[$-409]h:mm:ss\ AM/PM;@</t>
-  </si>
-  <si>
-    <t>h"時"mm"分";@</t>
-  </si>
-  <si>
-    <t>h"時"mm"分"ss"秒";@</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t># ?/?</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t># ??/??</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>#\ ???/???</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>#\ ?/2</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>#\ ?/4</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>#\ ?/8</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>#\ ?/16</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>#\ ?/10</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>#\ ?/100</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>0.E+00</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>0.00E+00</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>0.0000E+00</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>[&lt;=999]000;[&lt;=9999]000\-00;000\-0000</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>[&lt;=99999999]####\-####;\(00\)\ ####\-####</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>△\ #,##0;"▲"\ #,##0</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>[DBNum1][$-411]General</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>[DBNum2][$-411]General</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>[DBNum3][$-411]0</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>[DBNum3][$-411]#,##0</t>
-  </si>
-  <si>
-    <t>General</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>February-12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T1.7.30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_ "¥"* #,##0.0_ ;_ "¥"* \-#,##0.0_ ;_ "¥"* "-"?_ ;_ @_ </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* "-"_ ;_-@_ </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_ "¥"* #,##0_ ;_ "¥"* \-#,##0_ ;_ "¥"* "-"_ ;_ @_ </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>¥#,##0_);[Red]\("¥"#,##0\)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>12345</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3450 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,234.50 </t>
-  </si>
-  <si>
-    <t>(12345)</t>
-  </si>
-  <si>
-    <t>(1,234.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1,234.5 </t>
-  </si>
-  <si>
-    <t>△ 12345</t>
-  </si>
-  <si>
-    <t>△ 1,234.5</t>
-  </si>
-  <si>
-    <t>▲ 12345</t>
-  </si>
-  <si>
-    <t>▲ 1,234.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1,234.5 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1,234.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¥12,345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¥-12,345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¥-1,234.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12,345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -12,345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1,234.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $12,345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $-12,345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $-1,234.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¥12,345 </t>
-  </si>
-  <si>
-    <t>(¥12,345)</t>
-  </si>
-  <si>
-    <t>(¥1,234.5)</t>
-  </si>
-  <si>
-    <t>¥12,345</t>
-  </si>
-  <si>
-    <t>¥1,234.5</t>
-  </si>
-  <si>
-    <t>¥-12,345</t>
-  </si>
-  <si>
-    <t>¥-1,234.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$12,345 </t>
-  </si>
-  <si>
-    <t>($12,345)</t>
-  </si>
-  <si>
-    <t>($1,234.50)</t>
-  </si>
-  <si>
-    <t>1.2346E+04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[&lt;=99999999]####\-####;\(00\)\ ####\-####</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-12,345</t>
+  </si>
+  <si>
+    <t>-1,235</t>
+  </si>
+  <si>
+    <t>12,345</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻</t>
+    <rPh sb="0" eb="1">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[h]:mm:ss</t>
+  </si>
+  <si>
+    <t>983245:01:40</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2678,6 +2706,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4035,7 +4066,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4043,7 +4074,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="13" style="101" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="101" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
@@ -4078,60 +4109,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="43">
-        <v>40968</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>87</v>
+        <v>384</v>
+      </c>
+      <c r="C4" s="107">
+        <v>40968.542824074073</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>386</v>
       </c>
       <c r="E4" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="44">
-        <v>40968</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="2">
-        <v>207</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>267</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="63">
-        <v>40968.542824074073</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="2">
-        <v>226</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>286</v>
-      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
@@ -4267,10 +4278,10 @@
         <v>159</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="85" t="s">
         <v>295</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4287,10 +4298,10 @@
         <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="85" t="s">
         <v>297</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4307,10 +4318,10 @@
         <v>161</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="85" t="s">
         <v>299</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4327,10 +4338,10 @@
         <v>162</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="85" t="s">
         <v>301</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4347,10 +4358,10 @@
         <v>163</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="85" t="s">
         <v>303</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4367,10 +4378,10 @@
         <v>164</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="85" t="s">
         <v>305</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4387,10 +4398,10 @@
         <v>165</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="85" t="s">
         <v>307</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -4407,10 +4418,10 @@
         <v>166</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="85" t="s">
         <v>309</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -4427,10 +4438,10 @@
         <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="85" t="s">
         <v>311</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -4508,10 +4519,10 @@
         <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="85" t="s">
         <v>313</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4528,10 +4539,10 @@
         <v>170</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="85" t="s">
         <v>315</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4548,10 +4559,10 @@
         <v>171</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="85" t="s">
         <v>317</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4565,13 +4576,13 @@
         <v>12345.678900000001</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="85" t="s">
         <v>317</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4649,10 +4660,10 @@
         <v>180</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="85" t="s">
         <v>319</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4669,10 +4680,10 @@
         <v>181</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="85" t="s">
         <v>319</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4689,10 +4700,10 @@
         <v>182</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="85" t="s">
         <v>319</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4709,10 +4720,10 @@
         <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F7" s="85" t="s">
         <v>319</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4729,10 +4740,10 @@
         <v>183</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="85" t="s">
         <v>319</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4810,10 +4821,10 @@
         <v>186</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="85" t="s">
         <v>321</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4830,10 +4841,10 @@
         <v>204</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4850,10 +4861,10 @@
         <v>205</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="85" t="s">
         <v>323</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4870,10 +4881,10 @@
         <v>206</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="85" t="s">
         <v>325</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4890,10 +4901,10 @@
         <v>207</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="85" t="s">
         <v>325</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4910,10 +4921,10 @@
         <v>208</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="85" t="s">
         <v>325</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4930,10 +4941,10 @@
         <v>209</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="85" t="s">
         <v>327</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -4950,10 +4961,10 @@
         <v>210</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="85" t="s">
         <v>327</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -4970,10 +4981,10 @@
         <v>211</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="85" t="s">
         <v>327</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -4990,10 +5001,10 @@
         <v>212</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="85" t="s">
         <v>329</v>
-      </c>
-      <c r="F13" s="85" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -5010,10 +5021,10 @@
         <v>213</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="85" t="s">
         <v>329</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -5030,10 +5041,10 @@
         <v>214</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="85" t="s">
         <v>329</v>
-      </c>
-      <c r="F15" s="85" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -5050,10 +5061,10 @@
         <v>215</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="85" t="s">
         <v>331</v>
-      </c>
-      <c r="F16" s="85" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -5070,10 +5081,10 @@
         <v>216</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="85" t="s">
         <v>331</v>
-      </c>
-      <c r="F17" s="85" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -5090,10 +5101,10 @@
         <v>217</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="85" t="s">
         <v>331</v>
-      </c>
-      <c r="F18" s="85" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -5110,10 +5121,10 @@
         <v>218</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="85" t="s">
         <v>333</v>
-      </c>
-      <c r="F19" s="85" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -5130,10 +5141,10 @@
         <v>219</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="85" t="s">
         <v>333</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -5150,10 +5161,10 @@
         <v>220</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="85" t="s">
         <v>333</v>
-      </c>
-      <c r="F21" s="85" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -5189,15 +5200,15 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="101" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
@@ -5217,7 +5228,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="102" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5237,25 +5248,35 @@
       <c r="C4" s="72">
         <v>12345</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="103" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="107">
+        <v>40968.542824074073</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="2">
+        <v>46</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
@@ -5263,7 +5284,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="88"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="2"/>
       <c r="F6" s="85"/>
     </row>
@@ -5273,7 +5294,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="87"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="2"/>
       <c r="F7" s="85"/>
     </row>
@@ -5283,7 +5304,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="87"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="2"/>
       <c r="F8" s="85"/>
     </row>
@@ -5293,7 +5314,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="87"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="2"/>
       <c r="F9" s="85"/>
     </row>
@@ -5303,7 +5324,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="89"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="2"/>
       <c r="F10" s="85"/>
     </row>
@@ -5313,7 +5334,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="89"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="2"/>
       <c r="F11" s="85"/>
     </row>
@@ -5323,7 +5344,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="89"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="2"/>
       <c r="F12" s="85"/>
     </row>
@@ -5333,7 +5354,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="90"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="2"/>
       <c r="F13" s="85"/>
     </row>
@@ -5343,7 +5364,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="90"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="2"/>
       <c r="F14" s="85"/>
     </row>
@@ -5353,7 +5374,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="90"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="2"/>
       <c r="F15" s="85"/>
     </row>
@@ -5363,7 +5384,7 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="91"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="2"/>
       <c r="F16" s="85"/>
     </row>
@@ -5373,7 +5394,7 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="91"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="2"/>
       <c r="F17" s="85"/>
     </row>
@@ -5383,7 +5404,7 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="91"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="2"/>
       <c r="F18" s="85"/>
     </row>
@@ -5393,7 +5414,7 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="92"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="2"/>
       <c r="F19" s="85"/>
     </row>
@@ -5403,7 +5424,7 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="92"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="2"/>
       <c r="F20" s="85"/>
     </row>
@@ -5413,7 +5434,7 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="92"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="2"/>
       <c r="F21" s="85"/>
     </row>
@@ -5423,7 +5444,7 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="86"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="2"/>
       <c r="F22" s="85"/>
     </row>
@@ -5433,7 +5454,7 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="86"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="2"/>
       <c r="F23" s="85"/>
     </row>
@@ -5969,7 +5990,7 @@
         <v>12345</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" s="2">
         <v>177</v>
@@ -5990,7 +6011,7 @@
         <v>-12345</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" s="2">
         <v>177</v>
@@ -6011,7 +6032,7 @@
         <v>12.345000000000001</v>
       </c>
       <c r="D6" s="103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E6" s="2">
         <v>178</v>
@@ -6032,7 +6053,7 @@
         <v>12.345000000000001</v>
       </c>
       <c r="D7" s="103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E7" s="2">
         <v>179</v>
@@ -6053,7 +6074,7 @@
         <v>12345</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E8" s="2">
         <v>180</v>
@@ -6074,7 +6095,7 @@
         <v>1234.5</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E9" s="2">
         <v>181</v>
@@ -6095,7 +6116,7 @@
         <v>12345</v>
       </c>
       <c r="D10" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10" s="2">
         <v>182</v>
@@ -6116,7 +6137,7 @@
         <v>-12345</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E11" s="2">
         <v>182</v>
@@ -6137,7 +6158,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E12" s="2">
         <v>188</v>
@@ -6158,7 +6179,7 @@
         <v>12345</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E13" s="2">
         <v>183</v>
@@ -6179,7 +6200,7 @@
         <v>-12345</v>
       </c>
       <c r="D14" s="103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" s="2">
         <v>183</v>
@@ -6200,7 +6221,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E15" s="2">
         <v>189</v>
@@ -6221,7 +6242,7 @@
         <v>12345</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E16" s="2">
         <v>184</v>
@@ -6242,7 +6263,7 @@
         <v>-12345</v>
       </c>
       <c r="D17" s="103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E17" s="2">
         <v>184</v>
@@ -6265,7 +6286,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E18" s="2">
         <v>190</v>
@@ -6288,7 +6309,7 @@
         <v>12345</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E19" s="2">
         <v>177</v>
@@ -6309,7 +6330,7 @@
         <v>-12345</v>
       </c>
       <c r="D20" s="103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E20" s="2">
         <v>177</v>
@@ -6330,7 +6351,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D21" s="103" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E21" s="2">
         <v>191</v>
@@ -6351,7 +6372,7 @@
         <v>12345</v>
       </c>
       <c r="D22" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E22" s="2">
         <v>185</v>
@@ -6372,7 +6393,7 @@
         <v>-12345</v>
       </c>
       <c r="D23" s="103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E23" s="2">
         <v>185</v>
@@ -6393,7 +6414,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E24" s="2">
         <v>192</v>
@@ -6414,7 +6435,7 @@
         <v>12345</v>
       </c>
       <c r="D25" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E25" s="2">
         <v>186</v>
@@ -6435,7 +6456,7 @@
         <v>-12345</v>
       </c>
       <c r="D26" s="103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E26" s="2">
         <v>186</v>
@@ -6456,7 +6477,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D27" s="103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E27" s="2">
         <v>193</v>
@@ -6477,7 +6498,7 @@
         <v>12345</v>
       </c>
       <c r="D28" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E28" s="2">
         <v>187</v>
@@ -6498,7 +6519,7 @@
         <v>-12345</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E29" s="2">
         <v>187</v>
@@ -6519,7 +6540,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D30" s="103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="85"/>
@@ -6535,10 +6556,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6589,13 +6610,13 @@
         <v>12345</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E4" s="2">
         <v>195</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G4" s="100"/>
     </row>
@@ -6610,7 +6631,7 @@
         <v>-12345</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E5" s="2">
         <v>195</v>
@@ -6631,7 +6652,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D6" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E6" s="2">
         <v>196</v>
@@ -6652,7 +6673,7 @@
         <v>12345</v>
       </c>
       <c r="D7" s="103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E7" s="2">
         <v>197</v>
@@ -6673,7 +6694,7 @@
         <v>-12345</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E8" s="2">
         <v>197</v>
@@ -6694,7 +6715,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E9" s="2">
         <v>198</v>
@@ -6715,7 +6736,7 @@
         <v>12345</v>
       </c>
       <c r="D10" s="103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E10" s="2">
         <v>199</v>
@@ -6736,7 +6757,7 @@
         <v>-12345</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E11" s="2">
         <v>199</v>
@@ -6744,9 +6765,7 @@
       <c r="F11" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="G11" t="s">
-        <v>227</v>
-      </c>
+      <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
@@ -6759,7 +6778,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E12" s="2">
         <v>200</v>
@@ -6767,9 +6786,7 @@
       <c r="F12" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="G12" t="s">
-        <v>227</v>
-      </c>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
@@ -6782,13 +6799,13 @@
         <v>12345</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="G13" s="100"/>
     </row>
@@ -6803,7 +6820,7 @@
         <v>-12345</v>
       </c>
       <c r="D14" s="103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
@@ -6824,7 +6841,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E15" s="2">
         <v>201</v>
@@ -6845,7 +6862,7 @@
         <v>12345</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E16" s="2">
         <v>6</v>
@@ -6866,7 +6883,7 @@
         <v>-12345</v>
       </c>
       <c r="D17" s="103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E17" s="2">
         <v>6</v>
@@ -6887,13 +6904,13 @@
         <v>-1234.5</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E18" s="2">
         <v>202</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="G18" s="100"/>
     </row>
@@ -6908,13 +6925,13 @@
         <v>12345</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E19" s="2">
         <v>24</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G19" s="100"/>
     </row>
@@ -6929,13 +6946,13 @@
         <v>-12345</v>
       </c>
       <c r="D20" s="103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E20" s="2">
         <v>24</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G20" s="100"/>
     </row>
@@ -6950,13 +6967,13 @@
         <v>-1234.5</v>
       </c>
       <c r="D21" s="103" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E21" s="2">
         <v>26</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G21" s="100"/>
     </row>
@@ -6964,9 +6981,15 @@
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="85"/>
+      <c r="B22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="105">
+        <v>12345</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>383</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="85"/>
       <c r="G22" s="96"/>
@@ -6975,12 +6998,68 @@
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="85"/>
+      <c r="B23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="105">
+        <v>-12345</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>381</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="85"/>
       <c r="G23" s="96"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="106">
+        <v>-1234.5</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>382</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="96"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="96"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="96"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7044,13 +7123,13 @@
         <v>12345</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E4" s="2">
         <v>42</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G4" t="s">
         <v>228</v>
@@ -7067,13 +7146,13 @@
         <v>-12345</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E5" s="2">
         <v>42</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -7087,13 +7166,13 @@
         <v>-1234.5</v>
       </c>
       <c r="D6" s="103" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E6" s="2">
         <v>203</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -7107,13 +7186,13 @@
         <v>12345</v>
       </c>
       <c r="D7" s="103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E7" s="2">
         <v>41</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -7127,13 +7206,13 @@
         <v>-12345</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E8" s="2">
         <v>41</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -7147,13 +7226,13 @@
         <v>-1234.5</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E9" s="2">
         <v>249</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -7167,13 +7246,13 @@
         <v>12345</v>
       </c>
       <c r="D10" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E10" s="2">
         <v>205</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -7187,13 +7266,13 @@
         <v>-12345</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E11" s="2">
         <v>205</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -7207,13 +7286,13 @@
         <v>-1234.5</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E12" s="2">
         <v>206</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7246,8 +7325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7307,7 +7386,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -7327,7 +7406,7 @@
         <v>207</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -7347,7 +7426,7 @@
         <v>208</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -7367,7 +7446,7 @@
         <v>209</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7387,7 +7466,7 @@
         <v>210</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -7407,7 +7486,7 @@
         <v>211</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -7427,7 +7506,7 @@
         <v>212</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -7447,7 +7526,7 @@
         <v>213</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -7467,7 +7546,7 @@
         <v>214</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -7487,7 +7566,7 @@
         <v>215</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -7507,7 +7586,7 @@
         <v>216</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -7527,7 +7606,7 @@
         <v>217</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -7547,7 +7626,7 @@
         <v>218</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -7567,7 +7646,7 @@
         <v>219</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -7587,7 +7666,7 @@
         <v>220</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -7601,13 +7680,13 @@
         <v>40968.542824074073</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E19" s="2">
         <v>221</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -7627,7 +7706,7 @@
         <v>222</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -7647,7 +7726,7 @@
         <v>223</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -7667,7 +7746,7 @@
         <v>224</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -7687,7 +7766,7 @@
         <v>224</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -7707,7 +7786,7 @@
         <v>224</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -7727,7 +7806,7 @@
         <v>224</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -7747,7 +7826,7 @@
         <v>224</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -7767,7 +7846,7 @@
         <v>224</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -7781,13 +7860,13 @@
         <v>4595.5428240740739</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E28" s="2">
         <v>224</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -7807,7 +7886,7 @@
         <v>225</v>
       </c>
       <c r="F29" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H29" t="s">
         <v>112</v>
@@ -7830,7 +7909,7 @@
         <v>225</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -7850,7 +7929,7 @@
         <v>225</v>
       </c>
       <c r="F31" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -7870,7 +7949,7 @@
         <v>225</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -7890,7 +7969,7 @@
         <v>225</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -7910,7 +7989,7 @@
         <v>225</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -7930,7 +8009,7 @@
         <v>225</v>
       </c>
       <c r="F35" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -7988,7 +8067,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8048,7 +8127,7 @@
         <v>226</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8068,7 +8147,7 @@
         <v>227</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -8088,7 +8167,7 @@
         <v>228</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -8108,7 +8187,7 @@
         <v>229</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -8128,7 +8207,7 @@
         <v>230</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -8148,7 +8227,7 @@
         <v>212</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -8168,7 +8247,7 @@
         <v>213</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -8188,7 +8267,7 @@
         <v>231</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -8208,7 +8287,7 @@
         <v>232</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -8289,7 +8368,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -8309,7 +8388,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">

--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -4065,7 +4065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
@@ -7325,8 +7325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8017,9 +8017,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="13"/>
-      <c r="C36" s="62">
-        <v>1</v>
-      </c>
+      <c r="C36" s="62"/>
       <c r="D36" s="13"/>
       <c r="E36" s="2"/>
       <c r="F36" s="85"/>

--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="399">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -2429,12 +2429,66 @@
   <si>
     <t>983245:01:40</t>
   </si>
+  <si>
+    <t>Mar-01(日本語ロケール)</t>
+    <rPh sb="7" eb="10">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>March-01(日本語ロケール)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M(日本語ロケール)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M-01(日本語ロケール)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月-12</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[$-411]mmm\-yy;@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[$-411]mmmm\-yy;@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[$-411]mmmmm;@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[$-411]mmmmm\-yy;@</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="78">
+  <numFmts count="82">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2513,6 +2567,10 @@
     <numFmt numFmtId="245" formatCode="[DBNum3][$-411]0"/>
     <numFmt numFmtId="246" formatCode="[DBNum3][$-411]#,##0"/>
     <numFmt numFmtId="247" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="249" formatCode="[$-411]mmm\-yy;@"/>
+    <numFmt numFmtId="250" formatCode="[$-411]mmmm\-yy;@"/>
+    <numFmt numFmtId="251" formatCode="[$-411]mmmmm;@"/>
+    <numFmt numFmtId="252" formatCode="[$-411]mmmmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2590,7 +2648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2709,6 +2767,10 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="249" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="250" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="251" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="252" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3438,13 +3500,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>380354</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>132825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7323,10 +7385,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7629,7 +7691,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -7649,7 +7711,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -7669,7 +7731,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -7689,7 +7751,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -7709,7 +7771,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7729,87 +7791,87 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="61">
-        <v>40968.542824074073</v>
+        <v>387</v>
+      </c>
+      <c r="C22" s="108">
+        <v>41197.542824074073</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>122</v>
+        <v>391</v>
       </c>
       <c r="E22" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="61">
-        <v>32515.542824074073</v>
+        <v>388</v>
+      </c>
+      <c r="C23" s="109">
+        <v>41197.542824074073</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
       <c r="E23" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="61">
-        <v>32516.542824074073</v>
+        <v>389</v>
+      </c>
+      <c r="C24" s="110">
+        <v>41197.542824074073</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>124</v>
+        <v>393</v>
       </c>
       <c r="E24" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="61">
-        <v>9855.5428240740748</v>
+        <v>390</v>
+      </c>
+      <c r="C25" s="111">
+        <v>41197.542824074073</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>125</v>
+        <v>394</v>
       </c>
       <c r="E25" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -7817,10 +7879,10 @@
         <v>113</v>
       </c>
       <c r="C26" s="61">
-        <v>9856.5428240740748</v>
+        <v>40968.542824074073</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2">
         <v>224</v>
@@ -7829,7 +7891,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -7837,10 +7899,10 @@
         <v>113</v>
       </c>
       <c r="C27" s="61">
-        <v>4594.5428240740739</v>
+        <v>32515.542824074073</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2">
         <v>224</v>
@@ -7849,7 +7911,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -7857,10 +7919,10 @@
         <v>113</v>
       </c>
       <c r="C28" s="61">
-        <v>4595.5428240740739</v>
+        <v>32516.542824074073</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>336</v>
+        <v>124</v>
       </c>
       <c r="E28" s="2">
         <v>224</v>
@@ -7869,90 +7931,87 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>26</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="62">
-        <v>40968.542824074073</v>
+        <v>113</v>
+      </c>
+      <c r="C29" s="61">
+        <v>9855.5428240740748</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E29" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F29" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="H29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>27</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="62">
-        <v>32515.542824074073</v>
+        <v>113</v>
+      </c>
+      <c r="C30" s="61">
+        <v>9856.5428240740748</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E30" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>28</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="62">
-        <v>32516.542824074073</v>
+        <v>113</v>
+      </c>
+      <c r="C31" s="61">
+        <v>4594.5428240740739</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E31" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" s="85" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>29</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="62">
-        <v>9855.5428240740748</v>
+        <v>113</v>
+      </c>
+      <c r="C32" s="61">
+        <v>4595.5428240740739</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>118</v>
+        <v>336</v>
       </c>
       <c r="E32" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -7960,10 +8019,10 @@
         <v>114</v>
       </c>
       <c r="C33" s="62">
-        <v>9856.5428240740748</v>
+        <v>40968.542824074073</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2">
         <v>225</v>
@@ -7971,8 +8030,11 @@
       <c r="F33" s="85" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -7980,10 +8042,10 @@
         <v>114</v>
       </c>
       <c r="C34" s="62">
-        <v>4594.5428240740739</v>
+        <v>32515.542824074073</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2">
         <v>225</v>
@@ -7992,7 +8054,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -8000,10 +8062,10 @@
         <v>114</v>
       </c>
       <c r="C35" s="62">
-        <v>4595.5428240740739</v>
+        <v>32516.542824074073</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2">
         <v>225</v>
@@ -8012,45 +8074,125 @@
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>33</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="85"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="62">
+        <v>9855.5428240740748</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="2">
+        <v>225</v>
+      </c>
+      <c r="F36" s="85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>34</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="85"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="62">
+        <v>9856.5428240740748</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="2">
+        <v>225</v>
+      </c>
+      <c r="F37" s="85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>35</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="85"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="62">
+        <v>4594.5428240740739</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="2">
+        <v>225</v>
+      </c>
+      <c r="F38" s="85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>36</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="85"/>
+      <c r="B39" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="62">
+        <v>4595.5428240740739</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="2">
+        <v>225</v>
+      </c>
+      <c r="F39" s="85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="85"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="85"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="85"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="406">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -2481,6 +2481,63 @@
   </si>
   <si>
     <t>[$-411]mmmmm\-yy;@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢数字（十二万三千四百）（ゼロ）</t>
+    <rPh sb="0" eb="3">
+      <t>カンスウジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジュウニマン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨンヒャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>大字（ゼロ）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角（ゼロ）</t>
+    <rPh sb="0" eb="1">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角 桁区切り（ゼロ）</t>
+    <rPh sb="0" eb="1">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2567,10 +2624,10 @@
     <numFmt numFmtId="245" formatCode="[DBNum3][$-411]0"/>
     <numFmt numFmtId="246" formatCode="[DBNum3][$-411]#,##0"/>
     <numFmt numFmtId="247" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
-    <numFmt numFmtId="249" formatCode="[$-411]mmm\-yy;@"/>
-    <numFmt numFmtId="250" formatCode="[$-411]mmmm\-yy;@"/>
-    <numFmt numFmtId="251" formatCode="[$-411]mmmmm;@"/>
-    <numFmt numFmtId="252" formatCode="[$-411]mmmmm\-yy;@"/>
+    <numFmt numFmtId="248" formatCode="[$-411]mmm\-yy;@"/>
+    <numFmt numFmtId="249" formatCode="[$-411]mmmm\-yy;@"/>
+    <numFmt numFmtId="250" formatCode="[$-411]mmmmm;@"/>
+    <numFmt numFmtId="251" formatCode="[$-411]mmmmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2767,10 +2824,10 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="248" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="249" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="250" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="251" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="252" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4127,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4171,30 +4228,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="107">
-        <v>40968.542824074073</v>
-      </c>
-      <c r="D4" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4" s="2">
-        <v>46</v>
+        <v>399</v>
+      </c>
+      <c r="C4" s="89">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="89">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
@@ -4828,10 +4895,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5054,19 +5121,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="90">
-        <v>12345</v>
+        <v>399</v>
+      </c>
+      <c r="C13" s="89">
+        <v>0</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>212</v>
+        <v>400</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -5074,13 +5141,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14" s="90">
-        <v>-12345</v>
+        <v>12345</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>328</v>
@@ -5094,13 +5161,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15" s="90">
-        <v>-1234.5</v>
+        <v>-12345</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>328</v>
@@ -5114,19 +5181,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="91">
-        <v>12345</v>
+        <v>197</v>
+      </c>
+      <c r="C16" s="90">
+        <v>-1234.5</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -5134,19 +5201,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="91">
-        <v>-12345</v>
+        <v>401</v>
+      </c>
+      <c r="C17" s="90">
+        <v>0</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -5154,13 +5221,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" s="91">
-        <v>-1234.5</v>
+        <v>12345</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>330</v>
@@ -5174,19 +5241,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="92">
-        <v>12345</v>
+        <v>199</v>
+      </c>
+      <c r="C19" s="91">
+        <v>-12345</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -5194,19 +5261,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="92">
-        <v>-12345</v>
+        <v>200</v>
+      </c>
+      <c r="C20" s="91">
+        <v>-1234.5</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -5214,40 +5281,110 @@
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="92">
-        <v>-1234.5</v>
+        <v>402</v>
+      </c>
+      <c r="C21" s="91">
+        <v>0</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>220</v>
+        <v>403</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="85"/>
+      <c r="B22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="92">
+        <v>12345</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="85"/>
+      <c r="B23" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="92">
+        <v>-12345</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="92">
+        <v>-1234.5</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" s="92">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7387,7 +7524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="416">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -2358,9 +2358,6 @@
     <t xml:space="preserve"> $-12,345 </t>
   </si>
   <si>
-    <t xml:space="preserve"> $-1,234.5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">¥12,345 </t>
   </si>
   <si>
@@ -2534,9 +2531,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一</t>
-    <rPh sb="0" eb="1">
-      <t>イチ</t>
+    <t>(記号$)（負の数）</t>
+    <rPh sb="1" eb="3">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(記号なし)（負の数）</t>
+    <rPh sb="1" eb="3">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(記号\)（負の数）</t>
+    <rPh sb="1" eb="3">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> $-1,234.5 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12,345 € </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12,345 € </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1,234.50 € </t>
+  </si>
+  <si>
+    <t>_-* #,##0\ [$€-407]_-;\-* #,##0\ [$€-407]_-;_-* "-"\ [$€-407]_-;_-@_-</t>
+  </si>
+  <si>
+    <t>_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* "-"??\ [$€-407]_-;_-@_-</t>
+  </si>
+  <si>
+    <t>(記号€)（正の数）</t>
+    <rPh sb="1" eb="3">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(記号€)（負の数）</t>
+    <rPh sb="1" eb="3">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(記号€)（負の数）（小数）</t>
+    <rPh sb="1" eb="3">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2545,7 +2635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="82">
+  <numFmts count="84">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2628,6 +2718,8 @@
     <numFmt numFmtId="249" formatCode="[$-411]mmmm\-yy;@"/>
     <numFmt numFmtId="250" formatCode="[$-411]mmmmm;@"/>
     <numFmt numFmtId="251" formatCode="[$-411]mmmmm\-yy;@"/>
+    <numFmt numFmtId="252" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="253" formatCode="_-* #,##0\ [$€-407]_-;\-* #,##0\ [$€-407]_-;_-* &quot;-&quot;\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2705,7 +2797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2828,6 +2920,8 @@
     <xf numFmtId="249" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="250" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="251" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="253" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="252" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4184,8 +4278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4227,51 +4321,61 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C4" s="89">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>326</v>
+      <c r="B4" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="112">
+        <v>12345</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="2">
+        <v>253</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>327</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C5" s="89">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>326</v>
+      <c r="B5" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="112">
+        <v>-12345</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="2">
+        <v>253</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>327</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="85"/>
+      <c r="B6" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="113">
+        <v>-1234.5</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="2">
+        <v>252</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
@@ -4705,7 +4809,7 @@
         <v>12345.678900000001</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>316</v>
@@ -4973,7 +5077,7 @@
         <v>322</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -5121,13 +5225,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C13" s="89">
         <v>0</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>326</v>
@@ -5201,13 +5305,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>328</v>
@@ -5281,13 +5385,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C21" s="91">
         <v>0</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>330</v>
@@ -5361,13 +5465,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C25" s="92">
         <v>0</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>332</v>
@@ -5462,19 +5566,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="107">
         <v>40968.542824074073</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E5" s="2">
         <v>46</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -6809,7 +6913,7 @@
         <v>12345</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E4" s="2">
         <v>195</v>
@@ -6830,7 +6934,7 @@
         <v>-12345</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E5" s="2">
         <v>195</v>
@@ -6851,7 +6955,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D6" s="103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E6" s="2">
         <v>196</v>
@@ -6872,7 +6976,7 @@
         <v>12345</v>
       </c>
       <c r="D7" s="103" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E7" s="2">
         <v>197</v>
@@ -6893,7 +6997,7 @@
         <v>-12345</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E8" s="2">
         <v>197</v>
@@ -6914,7 +7018,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E9" s="2">
         <v>198</v>
@@ -6935,7 +7039,7 @@
         <v>12345</v>
       </c>
       <c r="D10" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E10" s="2">
         <v>199</v>
@@ -6956,7 +7060,7 @@
         <v>-12345</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E11" s="2">
         <v>199</v>
@@ -6977,7 +7081,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E12" s="2">
         <v>200</v>
@@ -6998,13 +7102,13 @@
         <v>12345</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G13" s="100"/>
     </row>
@@ -7019,7 +7123,7 @@
         <v>-12345</v>
       </c>
       <c r="D14" s="103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
@@ -7040,7 +7144,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E15" s="2">
         <v>201</v>
@@ -7061,7 +7165,7 @@
         <v>12345</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E16" s="2">
         <v>6</v>
@@ -7082,7 +7186,7 @@
         <v>-12345</v>
       </c>
       <c r="D17" s="103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E17" s="2">
         <v>6</v>
@@ -7103,13 +7207,13 @@
         <v>-1234.5</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E18" s="2">
         <v>202</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G18" s="100"/>
     </row>
@@ -7124,7 +7228,7 @@
         <v>12345</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E19" s="2">
         <v>24</v>
@@ -7145,7 +7249,7 @@
         <v>-12345</v>
       </c>
       <c r="D20" s="103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E20" s="2">
         <v>24</v>
@@ -7166,7 +7270,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D21" s="103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E21" s="2">
         <v>26</v>
@@ -7187,7 +7291,7 @@
         <v>12345</v>
       </c>
       <c r="D22" s="103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="85"/>
@@ -7204,7 +7308,7 @@
         <v>-12345</v>
       </c>
       <c r="D23" s="103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="85"/>
@@ -7221,7 +7325,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="85"/>
@@ -7270,10 +7374,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7339,7 +7443,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="C5" s="38">
         <v>-12345</v>
@@ -7399,7 +7503,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="C8" s="40">
         <v>-12345</v>
@@ -7459,7 +7563,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="C11" s="41">
         <v>-12345</v>
@@ -7485,7 +7589,7 @@
         <v>-1234.5</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="E12" s="2">
         <v>206</v>
@@ -7498,19 +7602,79 @@
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="85"/>
+      <c r="B13" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" s="112">
+        <v>12345</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="E13" s="2">
+        <v>253</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" s="112">
+        <v>-12345</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" s="2">
+        <v>253</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="13" t="str">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" s="113">
+        <v>-1234.5</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="E15" s="2">
+        <v>252</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="85"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D18" s="13" t="str">
         <f>"\"&amp;CHAR(9)&amp;CHAR(9)&amp;"12,345"</f>
         <v>\		12,345</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7933,19 +8097,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C22" s="108">
         <v>41197.542824074073</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E22" s="2">
         <v>220</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -7953,19 +8117,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C23" s="109">
         <v>41197.542824074073</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E23" s="2">
         <v>221</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -7973,19 +8137,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" s="110">
         <v>41197.542824074073</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E24" s="2">
         <v>222</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -7993,19 +8157,19 @@
         <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" s="111">
         <v>41197.542824074073</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E25" s="2">
         <v>223</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">

--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="444">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -2630,12 +2630,226 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(小数3桁)</t>
+    <rPh sb="1" eb="3">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値（大きな整数）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.235E-05</t>
+  </si>
+  <si>
+    <t>1.23457E+13</t>
+  </si>
+  <si>
+    <t>0.000E+00</t>
+  </si>
+  <si>
+    <t>-1.23457E+13</t>
+  </si>
+  <si>
+    <t>数値（大きな整数）(負の数)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(小数3桁)(負の数)</t>
+    <rPh sb="1" eb="3">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-1.235E-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値（大きな整数）(境界)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値（大きな整数）(境界)(負の数)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1E+11</t>
+  </si>
+  <si>
+    <t>-1E+11</t>
+  </si>
+  <si>
+    <t>99999999999</t>
+  </si>
+  <si>
+    <t>-99999999999</t>
+  </si>
+  <si>
+    <t>数値（小きな整数）(境界)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値（小きな整数）(境界)(負の数)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値（小きな整数）(境界)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値（小きな整数）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値（小きな整数）(負の数)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1E-10</t>
+  </si>
+  <si>
+    <t>-1E-10</t>
+  </si>
+  <si>
+    <t>0.999999999</t>
+  </si>
+  <si>
+    <t>-0.999999999</t>
+  </si>
+  <si>
+    <t>1.23457E-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-1.23457E-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="84">
+  <numFmts count="86">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2720,6 +2934,8 @@
     <numFmt numFmtId="251" formatCode="[$-411]mmmmm\-yy;@"/>
     <numFmt numFmtId="252" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     <numFmt numFmtId="253" formatCode="_-* #,##0\ [$€-407]_-;\-* #,##0\ [$€-407]_-;_-* &quot;-&quot;\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="254" formatCode="0.000_ "/>
+    <numFmt numFmtId="255" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2797,7 +3013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2922,6 +3138,8 @@
     <xf numFmtId="251" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="253" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="252" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="254" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="255" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4276,17 +4494,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="101" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
@@ -4321,69 +4539,49 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" s="112">
-        <v>12345</v>
-      </c>
-      <c r="D4" s="103" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" s="2">
-        <v>253</v>
+      <c r="B4" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="89">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" s="112">
-        <v>-12345</v>
-      </c>
-      <c r="D5" s="103" t="s">
-        <v>409</v>
-      </c>
-      <c r="E5" s="2">
-        <v>253</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>411</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="113">
-        <v>-1234.5</v>
-      </c>
-      <c r="D6" s="103" t="s">
-        <v>410</v>
-      </c>
-      <c r="E6" s="2">
-        <v>252</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>412</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="104"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="2"/>
       <c r="F7" s="85"/>
     </row>
@@ -4392,60 +4590,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="104"/>
       <c r="E8" s="2"/>
       <c r="F8" s="85"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="85"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="85"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="85"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="85"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4697,17 +4845,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
@@ -4822,11 +4970,41 @@
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="85"/>
+      <c r="B8" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="115">
+        <v>1.2345E-5</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="2">
+        <v>255</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="115">
+        <v>-1.2345E-5</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="E9" s="2">
+        <v>255</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>420</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5001,7 +5179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
@@ -5810,17 +5988,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
@@ -6044,6 +6222,266 @@
         <v>0</v>
       </c>
       <c r="F13" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="72">
+        <v>12345678901234</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="72">
+        <v>-12345678901234</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="72">
+        <v>100000100000</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="72">
+        <v>-100000000000</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="72">
+        <v>99999999999</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" s="72">
+        <v>-99999999999</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.2345669999999999E-12</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>440</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-1.2345669999999999E-12</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1E-10</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-1E-10</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>437</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.99999999900000003</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>438</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-0.99999999900000003</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="85" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6238,10 +6676,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6848,6 +7286,39 @@
       <c r="E30" s="2"/>
       <c r="F30" s="85"/>
       <c r="G30" s="97"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="97"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="97"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="97"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7376,7 +7847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>

--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="468">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -2843,6 +2843,234 @@
   <si>
     <t>0</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数10桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数8桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数7桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数6桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数5桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数4桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数3桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数2桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数1桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数0桁）</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数9桁）(1)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値(小数)(整数9桁）(2)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>123456790</t>
+  </si>
+  <si>
+    <t>123456789.1</t>
+  </si>
+  <si>
+    <t>12345678.99</t>
+  </si>
+  <si>
+    <t>1234567.988</t>
+  </si>
+  <si>
+    <t>123456.9877</t>
+  </si>
+  <si>
+    <t>12345.98765</t>
+  </si>
+  <si>
+    <t>1234.987654</t>
+  </si>
+  <si>
+    <t>123.9876543</t>
+  </si>
+  <si>
+    <t>12.98765432</t>
+  </si>
+  <si>
+    <t>1.987654321</t>
+  </si>
+  <si>
+    <t>0.987654321</t>
   </si>
 </sst>
 </file>
@@ -4494,10 +4722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4540,19 +4768,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C4" s="89">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>326</v>
+        <v>416</v>
+      </c>
+      <c r="C4" s="115">
+        <v>1.2345E-5</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" s="2">
+        <v>255</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>327</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4560,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="72"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="103"/>
       <c r="E5" s="2"/>
       <c r="F5" s="85"/>
@@ -4570,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="103"/>
       <c r="E6" s="2"/>
       <c r="F6" s="85"/>
@@ -4580,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="72"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="103"/>
       <c r="E7" s="2"/>
       <c r="F7" s="85"/>
@@ -4590,10 +4818,160 @@
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="104"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="2"/>
       <c r="F8" s="85"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="85"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="85"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="85"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="85"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="85"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="85"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="85"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="85"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="85"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="85"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="85"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="85"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="85"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="85"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4848,7 +5226,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5988,17 +6366,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
@@ -6482,6 +6860,274 @@
         <v>0</v>
       </c>
       <c r="F26" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1234567890.9876499</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>456</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C28" s="2">
+        <v>123456789.987654</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>457</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C29" s="2">
+        <v>123456789.123456</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>458</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12345678.9876543</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>459</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1234567.98765432</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>460</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C32" s="2">
+        <v>123456.987654321</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>461</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12345.987654320999</v>
+      </c>
+      <c r="D33" s="103" t="s">
+        <v>462</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1234.987654321</v>
+      </c>
+      <c r="D34" s="103" t="s">
+        <v>463</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C35" s="2">
+        <v>123.98765432099999</v>
+      </c>
+      <c r="D35" s="103" t="s">
+        <v>464</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C36" s="2">
+        <v>12.987654321000001</v>
+      </c>
+      <c r="D36" s="103" t="s">
+        <v>465</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.9876543209999999</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>466</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.98765432100999995</v>
+      </c>
+      <c r="D38" s="103" t="s">
+        <v>467</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="85" t="s">
         <v>231</v>
       </c>
     </row>

--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="481">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -3072,12 +3072,99 @@
   <si>
     <t>0.987654321</t>
   </si>
+  <si>
+    <t>数式（日時）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付加算用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016/10/27 0:00</t>
+  </si>
+  <si>
+    <t>数式（ブール）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規模</t>
+    <rPh sb="0" eb="2">
+      <t>キボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件数</t>
+    <rPh sb="0" eb="2">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>密度</t>
+    <rPh sb="0" eb="2">
+      <t>ミツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式（他のセル参照）</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9 </t>
+  </si>
+  <si>
+    <t>0.0_</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="86">
+  <numFmts count="87">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3164,6 +3251,7 @@
     <numFmt numFmtId="253" formatCode="_-* #,##0\ [$€-407]_-;\-* #,##0\ [$€-407]_-;_-* &quot;-&quot;\ [$€-407]_-;_-@_-"/>
     <numFmt numFmtId="254" formatCode="0.000_ "/>
     <numFmt numFmtId="255" formatCode="0.000E+00"/>
+    <numFmt numFmtId="256" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -3241,7 +3329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3368,6 +3456,9 @@
     <xf numFmtId="252" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="254" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="255" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="256" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="256" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4724,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4767,21 +4858,11 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="115">
-        <v>1.2345E-5</v>
-      </c>
-      <c r="D4" s="103" t="s">
-        <v>418</v>
-      </c>
-      <c r="E4" s="2">
-        <v>255</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>420</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="85"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
@@ -7140,10 +7221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7157,12 +7238,12 @@
     <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7183,7 +7264,7 @@
       </c>
       <c r="G3" s="96"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7194,7 +7275,7 @@
         <f>1+2</f>
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="103" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="2">
@@ -7205,7 +7286,7 @@
       </c>
       <c r="G4" s="95"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7216,7 +7297,7 @@
         <f>SUM(H6:H8)</f>
         <v>1101</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="103" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="2">
@@ -7232,7 +7313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7243,7 +7324,7 @@
         <f>"ファイル名:"&amp;I6&amp;"[PDF]"</f>
         <v>ファイル名:sample.pdf[PDF]</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="103" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="2">
@@ -7259,59 +7340,183 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="85"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="50">
+        <f>H11+H12</f>
+        <v>42670</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>470</v>
+      </c>
+      <c r="E7" s="2">
+        <v>211</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>272</v>
+      </c>
       <c r="H7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="85"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <f>IF(C5&gt;1000,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>231</v>
+      </c>
       <c r="H8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="85"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" s="118">
+        <f>L20</f>
+        <v>4.8780487804878048</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>479</v>
+      </c>
+      <c r="E9" s="2">
+        <v>256</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="2"/>
       <c r="F10" s="85"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="2"/>
       <c r="F11" s="85"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H11" s="116">
+        <v>42655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="2"/>
       <c r="F12" s="85"/>
+      <c r="H12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I16" t="s">
+        <v>473</v>
+      </c>
+      <c r="J16" t="s">
+        <v>475</v>
+      </c>
+      <c r="K16" t="s">
+        <v>476</v>
+      </c>
+      <c r="L16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.24</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="117">
+        <f>K17/J17</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0.44</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="117">
+        <f>K18/J18</f>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" s="117">
+        <f>K19/J19</f>
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I20" t="s">
+        <v>474</v>
+      </c>
+      <c r="J20">
+        <f>SUM(J17:J19)</f>
+        <v>1.23</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K17:K19)</f>
+        <v>6</v>
+      </c>
+      <c r="L20" s="117">
+        <f>K20/J20</f>
+        <v>4.8780487804878048</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E43D0259-9445-4927-92B2-35D8B180A028}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -21,11 +22,8 @@
     <sheet name="書式（文字列）" sheetId="13" r:id="rId12"/>
     <sheet name="書式（その他）" sheetId="14" r:id="rId13"/>
     <sheet name="書式（ユーザ定義）" sheetId="15" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId15"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId16"/>
-    <sheet name="Sheet16" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3163,7 +3161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="87">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
@@ -3469,6 +3467,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3490,7 +3491,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3533,7 +3540,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3576,7 +3589,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3614,7 +3633,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3651,7 +3676,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3688,7 +3719,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3725,7 +3762,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3762,7 +3805,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3799,7 +3848,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3836,7 +3891,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3873,7 +3934,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3910,7 +3977,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3947,7 +4020,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3989,7 +4068,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4032,7 +4117,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4075,7 +4166,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4113,7 +4210,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4156,7 +4259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4199,7 +4308,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4242,7 +4357,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4280,7 +4401,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4328,7 +4455,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4371,7 +4504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4409,7 +4548,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4457,7 +4602,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4500,7 +4651,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4527,7 +4684,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4569,7 +4726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4602,9 +4759,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4637,6 +4811,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4812,7 +5003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5062,7 +5253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5303,7 +5494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5474,7 +5665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5635,11 +5826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6136,10 +6327,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
@@ -6406,47 +6597,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7220,10 +7372,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
@@ -7526,7 +7678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -8180,7 +8332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8695,7 +8847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9007,7 +9159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -9826,7 +9978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10072,7 +10224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/test/data/cell_format_2010.xlsx
+++ b/src/test/data/cell_format_2010.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E43D0259-9445-4927-92B2-35D8B180A028}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6023B95E-E7AD-4819-83EA-03925276BC45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="483">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -2652,9 +2652,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.235E-05</t>
-  </si>
-  <si>
     <t>1.23457E+13</t>
   </si>
   <si>
@@ -3156,6 +3153,24 @@
   </si>
   <si>
     <t>0.0_</t>
+  </si>
+  <si>
+    <t>1.235E-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java8=1.234E-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊条件</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4589,16 +4604,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>370829</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>408929</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85200</xdr:rowOff>
+      <xdr:rowOff>123300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4621,7 +4636,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6391275" y="342900"/>
+          <a:off x="9420225" y="381000"/>
           <a:ext cx="5171429" cy="4200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5495,10 +5510,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5509,14 +5524,15 @@
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -5535,8 +5551,11 @@
       <c r="F3" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5555,8 +5574,9 @@
       <c r="F4" s="85" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5575,8 +5595,9 @@
       <c r="F5" s="85" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5595,8 +5616,9 @@
       <c r="F6" s="85" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5615,8 +5637,9 @@
       <c r="F7" s="85" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5627,34 +5650,38 @@
         <v>1.2345E-5</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="E8" s="2">
         <v>255</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C9" s="115">
         <v>-1.2345E-5</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E9" s="2">
         <v>255</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>420</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6330,8 +6357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6841,13 +6868,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -6867,7 +6894,7 @@
         <v>12345678901234</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -6881,13 +6908,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C16" s="72">
         <v>-12345678901234</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -6901,13 +6928,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C17" s="72">
         <v>100000100000</v>
       </c>
       <c r="D17" s="103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -6921,13 +6948,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C18" s="72">
         <v>-100000000000</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -6941,13 +6968,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C19" s="72">
         <v>99999999999</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -6961,13 +6988,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C20" s="72">
         <v>-99999999999</v>
       </c>
       <c r="D20" s="103" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -6981,13 +7008,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C21" s="2">
         <v>1.2345669999999999E-12</v>
       </c>
       <c r="D21" s="103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -7001,13 +7028,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C22" s="2">
         <v>-1.2345669999999999E-12</v>
       </c>
       <c r="D22" s="103" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -7021,13 +7048,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C23" s="2">
         <v>1E-10</v>
       </c>
       <c r="D23" s="103" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -7041,13 +7068,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="2">
         <v>-1E-10</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -7061,13 +7088,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25" s="2">
         <v>0.99999999900000003</v>
       </c>
       <c r="D25" s="103" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -7081,13 +7108,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C26" s="2">
         <v>-0.99999999900000003</v>
       </c>
       <c r="D26" s="103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -7101,13 +7128,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C27" s="2">
         <v>1234567890.9876499</v>
       </c>
       <c r="D27" s="103" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -7121,13 +7148,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C28" s="2">
         <v>123456789.987654</v>
       </c>
       <c r="D28" s="103" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -7141,13 +7168,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C29" s="2">
         <v>123456789.123456</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -7161,13 +7188,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30" s="2">
         <v>12345678.9876543</v>
       </c>
       <c r="D30" s="103" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -7181,13 +7208,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C31" s="2">
         <v>1234567.98765432</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -7201,13 +7228,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C32" s="2">
         <v>123456.987654321</v>
       </c>
       <c r="D32" s="103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -7221,13 +7248,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C33" s="2">
         <v>12345.987654320999</v>
       </c>
       <c r="D33" s="103" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -7241,13 +7268,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C34" s="2">
         <v>1234.987654321</v>
       </c>
       <c r="D34" s="103" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -7261,13 +7288,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C35" s="2">
         <v>123.98765432099999</v>
       </c>
       <c r="D35" s="103" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -7281,13 +7308,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C36" s="2">
         <v>12.987654321000001</v>
       </c>
       <c r="D36" s="103" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -7301,13 +7328,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C37" s="2">
         <v>1.9876543209999999</v>
       </c>
       <c r="D37" s="103" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -7321,13 +7348,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C38" s="2">
         <v>0.98765432100999995</v>
       </c>
       <c r="D38" s="103" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -7497,14 +7524,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C7" s="50">
         <f>H11+H12</f>
         <v>42670</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E7" s="2">
         <v>211</v>
@@ -7521,14 +7548,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C8" s="2" t="b">
         <f>IF(C5&gt;1000,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -7545,20 +7572,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C9" s="118">
         <f>L20</f>
         <v>4.8780487804878048</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E9" s="2">
         <v>256</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -7569,7 +7596,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="85"/>
       <c r="H10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -7596,16 +7623,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J16" t="s">
+        <v>474</v>
+      </c>
+      <c r="K16" t="s">
         <v>475</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>476</v>
-      </c>
-      <c r="L16" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.15">
@@ -7655,7 +7682,7 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.15">
       <c r="I20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J20">
         <f>SUM(J17:J19)</f>
